--- a/Leet Code Ranking.xlsx
+++ b/Leet Code Ranking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F32D12-384E-4948-AA8C-C9F3E95ED5BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A243187-EDD8-4F45-9828-13326AA4B6FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -33,12 +33,21 @@
   <si>
     <t>No of Questions completed</t>
   </si>
+  <si>
+    <t>&lt;500000 Rank</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Achieved ranking below 5 lacs and Nov month daily challenge</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +109,238 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,11 +348,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -133,6 +375,43 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,13 +434,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8493A64-E31A-490C-AD2B-575D5CA2C205}" name="Table1" displayName="Table1" ref="A1:D30" totalsRowShown="0">
-  <autoFilter ref="A1:D30" xr:uid="{AFBA861B-729F-4B67-955B-5E07D3FD50F7}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8493A64-E31A-490C-AD2B-575D5CA2C205}" name="Table1" displayName="Table1" ref="A1:E91" totalsRowShown="0">
+  <autoFilter ref="A1:E91" xr:uid="{AFBA861B-729F-4B67-955B-5E07D3FD50F7}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7E313A19-0152-4BF9-AEDA-C26E729D1363}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0B0C036A-F079-4FCF-8C2D-8548F6B15C81}" name="Ranking"/>
     <tableColumn id="3" xr3:uid="{FD862E2D-1E83-4917-8310-7ACA1681CBB6}" name="Difference"/>
     <tableColumn id="4" xr3:uid="{DD711082-FBFD-4FD6-97A2-7B6C00FC038C}" name="No of Questions completed"/>
+    <tableColumn id="5" xr3:uid="{E639446E-7191-404B-98FD-A1DD8C58839E}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -430,22 +710,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,6 +746,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -512,7 +799,7 @@
         <v>1560264</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C18" si="0">B4-B5</f>
+        <f t="shared" ref="C5:C85" si="0">B4-B5</f>
         <v>59240</v>
       </c>
       <c r="D5">
@@ -548,9 +835,7 @@
       <c r="D7">
         <v>60</v>
       </c>
-      <c r="N7" s="9">
-        <v>1233411</v>
-      </c>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -566,11 +851,9 @@
       <c r="D8">
         <v>61</v>
       </c>
-      <c r="K8" s="8">
-        <v>1244394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45575</v>
       </c>
@@ -584,8 +867,9 @@
       <c r="D9">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45576</v>
       </c>
@@ -599,6 +883,7 @@
       <c r="D10">
         <v>64</v>
       </c>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -627,8 +912,9 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I12" s="11"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
@@ -645,12 +931,8 @@
       <c r="D13">
         <v>66</v>
       </c>
-      <c r="J13" s="6">
-        <v>1318241</v>
-      </c>
-      <c r="L13" s="4">
-        <v>1369787</v>
-      </c>
+      <c r="J13" s="6"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -666,9 +948,7 @@
       <c r="D14">
         <v>71</v>
       </c>
-      <c r="L14" s="5">
-        <v>1371960</v>
-      </c>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -714,9 +994,8 @@
       <c r="D17">
         <v>77</v>
       </c>
-      <c r="J17" s="10">
-        <v>1188664</v>
-      </c>
+      <c r="H17" s="17"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -738,63 +1017,1077 @@
       <c r="A19" s="1">
         <v>45585</v>
       </c>
+      <c r="B19">
+        <v>1189685</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-1021</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45586</v>
       </c>
+      <c r="B20">
+        <v>1168955</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>20730</v>
+      </c>
+      <c r="D20">
+        <v>82</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45587</v>
       </c>
-      <c r="M21" s="7">
-        <v>1280209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1148982</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>19973</v>
+      </c>
+      <c r="D21">
+        <v>84</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45588</v>
       </c>
+      <c r="B22">
+        <v>1150010</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-1028</v>
+      </c>
+      <c r="D22">
+        <v>84</v>
+      </c>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45589</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1047618</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>102392</v>
+      </c>
+      <c r="D23">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45590</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1007084</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>40534</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45591</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>990898</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>16186</v>
+      </c>
+      <c r="D25">
+        <v>102</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45592</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>952361</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>38537</v>
+      </c>
+      <c r="D26">
+        <v>107</v>
+      </c>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45593</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>945531</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>6830</v>
+      </c>
+      <c r="D27">
+        <v>108</v>
+      </c>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45594</v>
       </c>
+      <c r="B28">
+        <v>931677</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>13854</v>
+      </c>
+      <c r="D28">
+        <v>110</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45595</v>
       </c>
+      <c r="B29">
+        <v>917953</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>13724</v>
+      </c>
+      <c r="D29">
+        <v>112</v>
+      </c>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45596</v>
+      </c>
+      <c r="B30">
+        <v>897660</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>20293</v>
+      </c>
+      <c r="D30">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B31">
+        <v>865166</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>32494</v>
+      </c>
+      <c r="D31">
+        <v>120</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45598</v>
+      </c>
+      <c r="B32">
+        <v>822236</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>42930</v>
+      </c>
+      <c r="D32">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45599</v>
+      </c>
+      <c r="B33">
+        <v>787810</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>34426</v>
+      </c>
+      <c r="D33">
+        <v>133</v>
+      </c>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B34">
+        <v>777144</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>10666</v>
+      </c>
+      <c r="D34">
+        <v>135</v>
+      </c>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45601</v>
+      </c>
+      <c r="B35">
+        <v>740627</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>36517</v>
+      </c>
+      <c r="D35">
+        <v>142</v>
+      </c>
+      <c r="J35" s="34"/>
+    </row>
+    <row r="36" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B36">
+        <v>721223</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>19404</v>
+      </c>
+      <c r="D36">
+        <v>146</v>
+      </c>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45603</v>
+      </c>
+      <c r="B37">
+        <v>697847</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>23376</v>
+      </c>
+      <c r="D37">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B38">
+        <v>687547</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>10300</v>
+      </c>
+      <c r="D38">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45605</v>
+      </c>
+      <c r="B39">
+        <v>678735</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>8812</v>
+      </c>
+      <c r="D39">
+        <v>156</v>
+      </c>
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B40">
+        <v>670121</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>8614</v>
+      </c>
+      <c r="D40">
+        <v>157</v>
+      </c>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B41">
+        <v>640508</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>29613</v>
+      </c>
+      <c r="D41">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B42">
+        <v>632857</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>7651</v>
+      </c>
+      <c r="D42">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B43">
+        <v>621086</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>11771</v>
+      </c>
+      <c r="D43">
+        <v>169</v>
+      </c>
+      <c r="J43" s="30"/>
+    </row>
+    <row r="44" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B44">
+        <v>609989</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>11097</v>
+      </c>
+      <c r="D44">
+        <v>171</v>
+      </c>
+      <c r="J44" s="31"/>
+      <c r="L44" s="29"/>
+    </row>
+    <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B45">
+        <v>592048</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>17941</v>
+      </c>
+      <c r="D45">
+        <v>176</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B46">
+        <v>574557</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>17491</v>
+      </c>
+      <c r="D46">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B47">
+        <v>557835</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>16722</v>
+      </c>
+      <c r="D47">
+        <v>187</v>
+      </c>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B48">
+        <v>551711</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>6124</v>
+      </c>
+      <c r="D48">
+        <v>189</v>
+      </c>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B49">
+        <v>548909</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>2802</v>
+      </c>
+      <c r="D49">
+        <v>190</v>
+      </c>
+      <c r="I49" s="40"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B50">
+        <v>542771</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>6138</v>
+      </c>
+      <c r="D50">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B51">
+        <v>518668</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>24103</v>
+      </c>
+      <c r="D51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B52">
+        <v>512564</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>6104</v>
+      </c>
+      <c r="D52">
+        <v>202</v>
+      </c>
+      <c r="I52" s="37"/>
+    </row>
+    <row r="53" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B53">
+        <v>509846</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>2718</v>
+      </c>
+      <c r="D53">
+        <v>203</v>
+      </c>
+      <c r="I53" s="38"/>
+    </row>
+    <row r="54" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B54">
+        <v>507272</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>2574</v>
+      </c>
+      <c r="D54">
+        <v>204</v>
+      </c>
+      <c r="I54" s="41"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B55">
+        <v>507593</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>-321</v>
+      </c>
+      <c r="D55">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B56">
+        <v>493191</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>14402</v>
+      </c>
+      <c r="D56">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B57">
+        <v>490645</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>2546</v>
+      </c>
+      <c r="D57">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B58">
+        <v>482561</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>8084</v>
+      </c>
+      <c r="D58">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B59">
+        <v>480130</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>2431</v>
+      </c>
+      <c r="D59">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B60">
+        <v>474813</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>5317</v>
+      </c>
+      <c r="D60">
+        <v>216</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="43">
+        <v>250</v>
+      </c>
+      <c r="G60" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B61">
+        <v>467125</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>7688</v>
+      </c>
+      <c r="D61">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B62">
+        <v>467499</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>-374</v>
+      </c>
+      <c r="D62">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B63">
+        <v>457270</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>10229</v>
+      </c>
+      <c r="D63">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B64">
+        <v>450081</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>7189</v>
+      </c>
+      <c r="D64">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B65">
+        <v>447795</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>2286</v>
+      </c>
+      <c r="D65">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B66">
+        <v>433409</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>14386</v>
+      </c>
+      <c r="D66">
+        <v>233</v>
+      </c>
+      <c r="G66" s="45"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B67">
+        <v>431313</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>2096</v>
+      </c>
+      <c r="D67">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B68">
+        <v>431625</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>-312</v>
+      </c>
+      <c r="D68">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B69">
+        <v>427050</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>4575</v>
+      </c>
+      <c r="D69">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B70">
+        <v>422552</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="0"/>
+        <v>4498</v>
+      </c>
+      <c r="D70">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B71">
+        <v>420522</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="D71">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B72">
+        <v>418559</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="0"/>
+        <v>1963</v>
+      </c>
+      <c r="D72">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B73">
+        <v>416586</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="0"/>
+        <v>1973</v>
+      </c>
+      <c r="D73">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B74">
+        <v>416818</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="0"/>
+        <v>-232</v>
+      </c>
+      <c r="D74">
+        <v>241</v>
+      </c>
+      <c r="G74" s="46"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B75">
+        <v>414878</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="0"/>
+        <v>1940</v>
+      </c>
+      <c r="D75">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B76">
+        <v>408370</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="0"/>
+        <v>6508</v>
+      </c>
+      <c r="D76">
+        <v>245</v>
+      </c>
+      <c r="G76" s="47"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B77">
+        <v>406461</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="0"/>
+        <v>1909</v>
+      </c>
+      <c r="D77">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B78">
+        <v>400377</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="0"/>
+        <v>6084</v>
+      </c>
+      <c r="D78">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B79">
+        <v>400655</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="0"/>
+        <v>-278</v>
+      </c>
+      <c r="D79">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B80">
+        <v>394484</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="0"/>
+        <v>6171</v>
+      </c>
+      <c r="D80">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B81">
+        <v>392606</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="0"/>
+        <v>1878</v>
+      </c>
+      <c r="D81">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B82">
+        <v>390838</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="0"/>
+        <v>1768</v>
+      </c>
+      <c r="D82">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B83">
+        <v>385034</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="0"/>
+        <v>5804</v>
+      </c>
+      <c r="D83">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B84">
+        <v>379255</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="0"/>
+        <v>5779</v>
+      </c>
+      <c r="D84">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B85">
+        <v>371630</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="0"/>
+        <v>7625</v>
+      </c>
+      <c r="D85">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45657</v>
       </c>
     </row>
   </sheetData>

--- a/Leet Code Ranking.xlsx
+++ b/Leet Code Ranking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A243187-EDD8-4F45-9828-13326AA4B6FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99146A6E-9721-4219-A59D-8FA27E8FFF9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -42,12 +42,15 @@
   <si>
     <t>Achieved ranking below 5 lacs and Nov month daily challenge</t>
   </si>
+  <si>
+    <t>Rank Per Question Solved</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,40 +275,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -314,12 +288,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -339,8 +307,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -348,22 +321,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -388,7 +351,7 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -398,22 +361,18 @@
     <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -434,8 +393,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8493A64-E31A-490C-AD2B-575D5CA2C205}" name="Table1" displayName="Table1" ref="A1:E91" totalsRowShown="0">
-  <autoFilter ref="A1:E91" xr:uid="{AFBA861B-729F-4B67-955B-5E07D3FD50F7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8493A64-E31A-490C-AD2B-575D5CA2C205}" name="Table1" displayName="Table1" ref="A1:E122" totalsRowShown="0">
+  <autoFilter ref="A1:E122" xr:uid="{AFBA861B-729F-4B67-955B-5E07D3FD50F7}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7E313A19-0152-4BF9-AEDA-C26E729D1363}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0B0C036A-F079-4FCF-8C2D-8548F6B15C81}" name="Ranking"/>
@@ -710,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84:C85"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,6 +708,9 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -760,6 +722,10 @@
       <c r="D2">
         <v>42</v>
       </c>
+      <c r="G2" t="e">
+        <f>ROUND(C2/(D2-D1),2)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -775,6 +741,10 @@
       <c r="D3">
         <v>48</v>
       </c>
+      <c r="G3">
+        <f>ROUND(C3/(D3-D2),0)</f>
+        <v>18875</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -790,6 +760,10 @@
       <c r="D4">
         <v>50</v>
       </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="0">ROUND(C4/(D4-D3),0)</f>
+        <v>21860</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -799,11 +773,15 @@
         <v>1560264</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C85" si="0">B4-B5</f>
+        <f t="shared" ref="C5:C101" si="1">B4-B5</f>
         <v>59240</v>
       </c>
       <c r="D5">
         <v>54</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>14810</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -814,11 +792,15 @@
         <v>1489637</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70627</v>
       </c>
       <c r="D6">
         <v>58</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>17657</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
@@ -829,11 +811,15 @@
         <v>1441471</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48166</v>
       </c>
       <c r="D7">
         <v>60</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>24083</v>
       </c>
       <c r="N7" s="9"/>
     </row>
@@ -845,11 +831,15 @@
         <v>1426898</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14573</v>
       </c>
       <c r="D8">
         <v>61</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>14573</v>
       </c>
       <c r="K8" s="8"/>
     </row>
@@ -861,11 +851,15 @@
         <v>1397304</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29594</v>
       </c>
       <c r="D9">
         <v>63</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>14797</v>
       </c>
       <c r="J9" s="12"/>
     </row>
@@ -877,11 +871,15 @@
         <v>1383524</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13780</v>
       </c>
       <c r="D10">
         <v>64</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>13780</v>
       </c>
       <c r="J10" s="13"/>
     </row>
@@ -893,11 +891,15 @@
         <v>1369787</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13737</v>
       </c>
       <c r="D11">
         <v>65</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>13737</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
@@ -908,11 +910,15 @@
         <v>1369787</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12">
         <v>65</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="2"/>
@@ -925,11 +931,15 @@
         <v>1371960</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2173</v>
       </c>
       <c r="D13">
         <v>66</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-2173</v>
       </c>
       <c r="J13" s="6"/>
       <c r="L13" s="4"/>
@@ -942,11 +952,15 @@
         <v>1318241</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53719</v>
       </c>
       <c r="D14">
         <v>71</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>10744</v>
       </c>
       <c r="L14" s="5"/>
     </row>
@@ -958,11 +972,15 @@
         <v>1280209</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38032</v>
       </c>
       <c r="D15">
         <v>72</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>38032</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -973,11 +991,15 @@
         <v>1244394</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35815</v>
       </c>
       <c r="D16">
         <v>74</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>17908</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
@@ -988,11 +1010,15 @@
         <v>1233411</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10983</v>
       </c>
       <c r="D17">
         <v>77</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3661</v>
       </c>
       <c r="H17" s="17"/>
       <c r="J17" s="10"/>
@@ -1005,11 +1031,15 @@
         <v>1188664</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44747</v>
       </c>
       <c r="D18">
         <v>80</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>14916</v>
       </c>
       <c r="P18" s="3"/>
     </row>
@@ -1021,11 +1051,15 @@
         <v>1189685</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1021</v>
       </c>
       <c r="D19">
         <v>80</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1036,11 +1070,15 @@
         <v>1168955</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20730</v>
       </c>
       <c r="D20">
         <v>82</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>10365</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
@@ -1051,11 +1089,15 @@
         <v>1148982</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19973</v>
       </c>
       <c r="D21">
         <v>84</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>9987</v>
       </c>
       <c r="M21" s="7"/>
     </row>
@@ -1067,11 +1109,15 @@
         <v>1150010</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1028</v>
       </c>
       <c r="D22">
         <v>84</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I22" s="18"/>
     </row>
@@ -1083,11 +1129,15 @@
         <v>1047618</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102392</v>
       </c>
       <c r="D23">
         <v>96</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>8533</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
@@ -1098,11 +1148,15 @@
         <v>1007084</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40534</v>
       </c>
       <c r="D24">
         <v>99</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>13511</v>
       </c>
       <c r="H24" s="16"/>
     </row>
@@ -1114,14 +1168,18 @@
         <v>990898</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16186</v>
       </c>
       <c r="D25">
         <v>102</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="J25" s="22"/>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>5395</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1131,11 +1189,15 @@
         <v>952361</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38537</v>
       </c>
       <c r="D26">
         <v>107</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>7707</v>
       </c>
       <c r="I26" s="14"/>
     </row>
@@ -1147,13 +1209,17 @@
         <v>945531</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6830</v>
       </c>
       <c r="D27">
         <v>108</v>
       </c>
       <c r="F27" s="19"/>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>6830</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1163,14 +1229,17 @@
         <v>931677</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13854</v>
       </c>
       <c r="D28">
         <v>110</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="23"/>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>6927</v>
+      </c>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1180,11 +1249,15 @@
         <v>917953</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13724</v>
       </c>
       <c r="D29">
         <v>112</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>6862</v>
       </c>
       <c r="I29" s="15"/>
     </row>
@@ -1196,11 +1269,19 @@
         <v>897660</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20293</v>
       </c>
       <c r="D30">
         <v>116</v>
+      </c>
+      <c r="F30" s="42">
+        <f>Table1[[#This Row],[No of Questions completed]]-D2</f>
+        <v>74</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>5073</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
@@ -1211,14 +1292,17 @@
         <v>865166</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32494</v>
       </c>
       <c r="D31">
         <v>120</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="24"/>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>8124</v>
+      </c>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1228,11 +1312,15 @@
         <v>822236</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42930</v>
       </c>
       <c r="D32">
         <v>128</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>5366</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -1243,13 +1331,17 @@
         <v>787810</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34426</v>
       </c>
       <c r="D33">
         <v>133</v>
       </c>
-      <c r="J33" s="25"/>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>6885</v>
+      </c>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -1259,15 +1351,19 @@
         <v>777144</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10666</v>
       </c>
       <c r="D34">
         <v>135</v>
       </c>
-      <c r="J34" s="39"/>
-    </row>
-    <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>5333</v>
+      </c>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45601</v>
       </c>
@@ -1275,13 +1371,16 @@
         <v>740627</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36517</v>
       </c>
       <c r="D35">
         <v>142</v>
       </c>
-      <c r="J35" s="34"/>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>5217</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -1291,13 +1390,17 @@
         <v>721223</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19404</v>
       </c>
       <c r="D36">
         <v>146</v>
       </c>
-      <c r="J36" s="36"/>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>4851</v>
+      </c>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -1307,11 +1410,15 @@
         <v>697847</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23376</v>
       </c>
       <c r="D37">
         <v>151</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>4675</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1322,11 +1429,15 @@
         <v>687547</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10300</v>
       </c>
       <c r="D38">
         <v>153</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>5150</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -1337,13 +1448,17 @@
         <v>678735</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8812</v>
       </c>
       <c r="D39">
         <v>156</v>
       </c>
-      <c r="J39" s="27"/>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>2937</v>
+      </c>
+      <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -1353,14 +1468,18 @@
         <v>670121</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8614</v>
       </c>
       <c r="D40">
         <v>157</v>
       </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>8614</v>
+      </c>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -1370,11 +1489,15 @@
         <v>640508</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29613</v>
       </c>
       <c r="D41">
         <v>164</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>4230</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1385,11 +1508,15 @@
         <v>632857</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7651</v>
       </c>
       <c r="D42">
         <v>166</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>3826</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -1400,13 +1527,17 @@
         <v>621086</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11771</v>
       </c>
       <c r="D43">
         <v>169</v>
       </c>
-      <c r="J43" s="30"/>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>3924</v>
+      </c>
+      <c r="J43" s="28"/>
     </row>
     <row r="44" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -1416,14 +1547,18 @@
         <v>609989</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11097</v>
       </c>
       <c r="D44">
         <v>171</v>
       </c>
-      <c r="J44" s="31"/>
-      <c r="L44" s="29"/>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>5549</v>
+      </c>
+      <c r="J44" s="29"/>
+      <c r="L44" s="27"/>
     </row>
     <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -1433,14 +1568,18 @@
         <v>592048</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17941</v>
       </c>
       <c r="D45">
         <v>176</v>
       </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="35"/>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>3588</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -1450,11 +1589,15 @@
         <v>574557</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17491</v>
       </c>
       <c r="D46">
         <v>182</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>2915</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -1465,13 +1608,17 @@
         <v>557835</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16722</v>
       </c>
       <c r="D47">
         <v>187</v>
       </c>
-      <c r="I47" s="32"/>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>3344</v>
+      </c>
+      <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -1481,13 +1628,17 @@
         <v>551711</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6124</v>
       </c>
       <c r="D48">
         <v>189</v>
       </c>
-      <c r="I48" s="32"/>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>3062</v>
+      </c>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
@@ -1497,13 +1648,17 @@
         <v>548909</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2802</v>
       </c>
       <c r="D49">
         <v>190</v>
       </c>
-      <c r="I49" s="40"/>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>2802</v>
+      </c>
+      <c r="I49" s="37"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -1513,11 +1668,15 @@
         <v>542771</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6138</v>
       </c>
       <c r="D50">
         <v>192</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>3069</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -1528,11 +1687,15 @@
         <v>518668</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24103</v>
       </c>
       <c r="D51">
         <v>200</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>3013</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -1543,13 +1706,17 @@
         <v>512564</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6104</v>
       </c>
       <c r="D52">
         <v>202</v>
       </c>
-      <c r="I52" s="37"/>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>3052</v>
+      </c>
+      <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
@@ -1559,13 +1726,17 @@
         <v>509846</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2718</v>
       </c>
       <c r="D53">
         <v>203</v>
       </c>
-      <c r="I53" s="38"/>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>2718</v>
+      </c>
+      <c r="I53" s="35"/>
     </row>
     <row r="54" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
@@ -1575,13 +1746,17 @@
         <v>507272</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2574</v>
       </c>
       <c r="D54">
         <v>204</v>
       </c>
-      <c r="I54" s="41"/>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>2574</v>
+      </c>
+      <c r="I54" s="38"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -1591,11 +1766,15 @@
         <v>507593</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-321</v>
       </c>
       <c r="D55">
         <v>206</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>-161</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -1606,11 +1785,15 @@
         <v>493191</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14402</v>
       </c>
       <c r="D56">
         <v>209</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>4801</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -1621,11 +1804,15 @@
         <v>490645</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2546</v>
       </c>
       <c r="D57">
         <v>211</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>1273</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -1636,11 +1823,15 @@
         <v>482561</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8084</v>
       </c>
       <c r="D58">
         <v>213</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>4042</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -1651,11 +1842,15 @@
         <v>480130</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2431</v>
       </c>
       <c r="D59">
         <v>214</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>2431</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -1666,19 +1861,23 @@
         <v>474813</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5317</v>
       </c>
       <c r="D60">
         <v>216</v>
       </c>
-      <c r="E60" s="42" t="s">
+      <c r="E60" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="43">
+      <c r="F60" s="40">
         <v>250</v>
       </c>
-      <c r="G60" s="44" t="s">
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>2659</v>
+      </c>
+      <c r="H60" s="41" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1690,11 +1889,19 @@
         <v>467125</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7688</v>
       </c>
       <c r="D61">
         <v>219</v>
+      </c>
+      <c r="F61" s="42">
+        <f>D60-D30</f>
+        <v>100</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>2563</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -1705,11 +1912,15 @@
         <v>467499</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-374</v>
       </c>
       <c r="D62">
         <v>219</v>
+      </c>
+      <c r="G62" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -1720,11 +1931,15 @@
         <v>457270</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10229</v>
       </c>
       <c r="D63">
         <v>223</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>2557</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -1735,11 +1950,15 @@
         <v>450081</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7189</v>
       </c>
       <c r="D64">
         <v>226</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>2396</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1750,14 +1969,18 @@
         <v>447795</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2286</v>
       </c>
       <c r="D65">
         <v>227</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45632</v>
       </c>
@@ -1765,13 +1988,16 @@
         <v>433409</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14386</v>
       </c>
       <c r="D66">
         <v>233</v>
       </c>
-      <c r="G66" s="45"/>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>2398</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -1781,11 +2007,15 @@
         <v>431313</v>
       </c>
       <c r="C67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2096</v>
       </c>
       <c r="D67">
         <v>234</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>2096</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -1796,11 +2026,15 @@
         <v>431625</v>
       </c>
       <c r="C68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-312</v>
       </c>
       <c r="D68">
         <v>234</v>
+      </c>
+      <c r="G68" t="e">
+        <f t="shared" ref="G68:G101" si="2">ROUND(C68/(D68-D67),0)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,11 +2045,15 @@
         <v>427050</v>
       </c>
       <c r="C69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4575</v>
       </c>
       <c r="D69">
         <v>236</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>2288</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -1826,11 +2064,15 @@
         <v>422552</v>
       </c>
       <c r="C70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4498</v>
       </c>
       <c r="D70">
         <v>238</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>2249</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -1841,11 +2083,15 @@
         <v>420522</v>
       </c>
       <c r="C71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2030</v>
       </c>
       <c r="D71">
         <v>239</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>2030</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -1856,11 +2102,15 @@
         <v>418559</v>
       </c>
       <c r="C72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1963</v>
       </c>
       <c r="D72">
         <v>240</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>1963</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -1871,14 +2121,18 @@
         <v>416586</v>
       </c>
       <c r="C73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1973</v>
       </c>
       <c r="D73">
         <v>241</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45640</v>
       </c>
@@ -1886,13 +2140,16 @@
         <v>416818</v>
       </c>
       <c r="C74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-232</v>
       </c>
       <c r="D74">
         <v>241</v>
       </c>
-      <c r="G74" s="46"/>
+      <c r="G74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -1902,14 +2159,18 @@
         <v>414878</v>
       </c>
       <c r="C75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1940</v>
       </c>
       <c r="D75">
         <v>242</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45642</v>
       </c>
@@ -1917,13 +2178,16 @@
         <v>408370</v>
       </c>
       <c r="C76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6508</v>
       </c>
       <c r="D76">
         <v>245</v>
       </c>
-      <c r="G76" s="47"/>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>2169</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -1933,11 +2197,15 @@
         <v>406461</v>
       </c>
       <c r="C77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1909</v>
       </c>
       <c r="D77">
         <v>246</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>1909</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -1948,11 +2216,15 @@
         <v>400377</v>
       </c>
       <c r="C78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6084</v>
       </c>
       <c r="D78">
         <v>249</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>2028</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -1963,11 +2235,15 @@
         <v>400655</v>
       </c>
       <c r="C79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-278</v>
       </c>
       <c r="D79">
         <v>249</v>
+      </c>
+      <c r="G79" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -1978,14 +2254,18 @@
         <v>394484</v>
       </c>
       <c r="C80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6171</v>
       </c>
       <c r="D80">
         <v>252</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45647</v>
       </c>
@@ -1993,14 +2273,18 @@
         <v>392606</v>
       </c>
       <c r="C81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1878</v>
       </c>
       <c r="D81">
         <v>254</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45648</v>
       </c>
@@ -2008,14 +2292,18 @@
         <v>390838</v>
       </c>
       <c r="C82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1768</v>
       </c>
       <c r="D82">
         <v>255</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45649</v>
       </c>
@@ -2023,14 +2311,18 @@
         <v>385034</v>
       </c>
       <c r="C83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5804</v>
       </c>
       <c r="D83">
         <v>258</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45650</v>
       </c>
@@ -2038,14 +2330,18 @@
         <v>379255</v>
       </c>
       <c r="C84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5779</v>
       </c>
       <c r="D84">
         <v>260</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45651</v>
       </c>
@@ -2053,41 +2349,622 @@
         <v>371630</v>
       </c>
       <c r="C85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7625</v>
       </c>
       <c r="D85">
         <v>264</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45652</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>368051</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>3579</v>
+      </c>
+      <c r="D86">
+        <v>266</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45653</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>364508</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>3543</v>
+      </c>
+      <c r="D87">
+        <v>268</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45654</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>359123</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>5385</v>
+      </c>
+      <c r="D88">
+        <v>271</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45655</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>355599</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>3524</v>
+      </c>
+      <c r="D89">
+        <v>273</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45656</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>348545</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>7054</v>
+      </c>
+      <c r="D90">
+        <v>277</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45657</v>
+      </c>
+      <c r="B91">
+        <v>343525</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>5020</v>
+      </c>
+      <c r="D91">
+        <v>280</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B92">
+        <v>342050</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>1475</v>
+      </c>
+      <c r="D92">
+        <v>281</v>
+      </c>
+      <c r="F92" s="42">
+        <f>D91-D60</f>
+        <v>64</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B93">
+        <v>337253</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>4797</v>
+      </c>
+      <c r="D93">
+        <v>284</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B94">
+        <v>330991</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>6262</v>
+      </c>
+      <c r="D94">
+        <v>288</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B95">
+        <v>327932</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>3059</v>
+      </c>
+      <c r="D95">
+        <v>290</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B96">
+        <v>325126</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>2806</v>
+      </c>
+      <c r="D96">
+        <v>292</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B97">
+        <v>323781</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>1345</v>
+      </c>
+      <c r="D97">
+        <v>293</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B98">
+        <v>316522</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>7259</v>
+      </c>
+      <c r="D98">
+        <v>298</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B99">
+        <v>312101</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>4421</v>
+      </c>
+      <c r="D99">
+        <v>301</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B100">
+        <v>303172</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>8929</v>
+      </c>
+      <c r="D100">
+        <v>308</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B101">
+        <v>293060</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>10112</v>
+      </c>
+      <c r="D101">
+        <v>314</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B102">
+        <v>290452</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:C114" si="3">B101-B102</f>
+        <v>2608</v>
+      </c>
+      <c r="D102">
+        <v>316</v>
+      </c>
+      <c r="F102" s="42">
+        <f>D102-D91</f>
+        <v>36</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ref="G102:G114" si="4">ROUND(C102/(D102-D101),2)</f>
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B103">
+        <v>286460</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>3992</v>
+      </c>
+      <c r="D103">
+        <v>319</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="4"/>
+        <v>1330.67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B104">
+        <v>283977</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>2483</v>
+      </c>
+      <c r="D104">
+        <v>321</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="4"/>
+        <v>1241.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B105">
+        <v>280121</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>3856</v>
+      </c>
+      <c r="D105">
+        <v>324</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="4"/>
+        <v>1285.33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B106">
+        <v>277659</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>2462</v>
+      </c>
+      <c r="D106">
+        <v>326</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="4"/>
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B107">
+        <v>275299</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>2360</v>
+      </c>
+      <c r="D107">
+        <v>328</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="4"/>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B108">
+        <v>264953</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>10346</v>
+      </c>
+      <c r="D108">
+        <v>336</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="4"/>
+        <v>1293.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B109">
+        <v>262665</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>2288</v>
+      </c>
+      <c r="D109">
+        <v>338</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="4"/>
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B110">
+        <v>260391</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>2274</v>
+      </c>
+      <c r="D110">
+        <v>340</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="4"/>
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B111">
+        <v>256931</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>3460</v>
+      </c>
+      <c r="D111">
+        <v>343</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="4"/>
+        <v>1153.33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B112">
+        <v>254791</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>2140</v>
+      </c>
+      <c r="D112">
+        <v>345</v>
+      </c>
+      <c r="F112" s="42">
+        <f>D112-D91</f>
+        <v>65</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="4"/>
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B113">
+        <v>247836</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>6955</v>
+      </c>
+      <c r="D113">
+        <v>351</v>
+      </c>
+      <c r="F113" s="42">
+        <f>D113-D91</f>
+        <v>71</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="4"/>
+        <v>1159.17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B114">
+        <v>246927</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>909</v>
+      </c>
+      <c r="D114">
+        <v>352</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="4"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45682</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45688</v>
       </c>
     </row>
   </sheetData>

--- a/Leet Code Ranking.xlsx
+++ b/Leet Code Ranking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99146A6E-9721-4219-A59D-8FA27E8FFF9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2AE546-FDEE-41BF-B79D-533A11B5DA8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,8 +393,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8493A64-E31A-490C-AD2B-575D5CA2C205}" name="Table1" displayName="Table1" ref="A1:E122" totalsRowShown="0">
-  <autoFilter ref="A1:E122" xr:uid="{AFBA861B-729F-4B67-955B-5E07D3FD50F7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8493A64-E31A-490C-AD2B-575D5CA2C205}" name="Table1" displayName="Table1" ref="A1:E150" totalsRowShown="0">
+  <autoFilter ref="A1:E150" xr:uid="{AFBA861B-729F-4B67-955B-5E07D3FD50F7}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7E313A19-0152-4BF9-AEDA-C26E729D1363}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0B0C036A-F079-4FCF-8C2D-8548F6B15C81}" name="Ranking"/>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P122"/>
+  <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124:C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,7 +2676,7 @@
         <v>290452</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102:C114" si="3">B101-B102</f>
+        <f t="shared" ref="C102:C125" si="3">B101-B102</f>
         <v>2608</v>
       </c>
       <c r="D102">
@@ -2687,7 +2687,7 @@
         <v>36</v>
       </c>
       <c r="G102">
-        <f t="shared" ref="G102:G114" si="4">ROUND(C102/(D102-D101),2)</f>
+        <f t="shared" ref="G102:G115" si="4">ROUND(C102/(D102-D101),2)</f>
         <v>1304</v>
       </c>
     </row>
@@ -2931,40 +2931,302 @@
       <c r="A115" s="1">
         <v>45681</v>
       </c>
+      <c r="B115">
+        <v>245948</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>979</v>
+      </c>
+      <c r="D115">
+        <v>353</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="4"/>
+        <v>979</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45682</v>
       </c>
+      <c r="B116">
+        <v>243914</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>2034</v>
+      </c>
+      <c r="D116">
+        <v>355</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45683</v>
       </c>
+      <c r="B117">
+        <v>242960</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>954</v>
+      </c>
+      <c r="D117">
+        <v>356</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45684</v>
       </c>
+      <c r="B118">
+        <v>240977</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="3"/>
+        <v>1983</v>
+      </c>
+      <c r="D118">
+        <v>358</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45685</v>
       </c>
+      <c r="B119">
+        <v>237875</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>3102</v>
+      </c>
+      <c r="D119">
+        <v>361</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45686</v>
       </c>
+      <c r="B120">
+        <v>230581</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>7294</v>
+      </c>
+      <c r="D120">
+        <v>368</v>
+      </c>
+      <c r="F120" s="42">
+        <f>D120-D91</f>
+        <v>88</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45687</v>
       </c>
+      <c r="B121">
+        <v>229696</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="3"/>
+        <v>885</v>
+      </c>
+      <c r="D121">
+        <v>369</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45688</v>
+      </c>
+      <c r="B122">
+        <v>225665</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="3"/>
+        <v>4031</v>
+      </c>
+      <c r="D122">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B123">
+        <v>224805</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="3"/>
+        <v>860</v>
+      </c>
+      <c r="D123">
+        <v>374</v>
+      </c>
+      <c r="F123" s="42">
+        <f>D122-D91</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45690</v>
+      </c>
+      <c r="B124">
+        <v>220133</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="3"/>
+        <v>4672</v>
+      </c>
+      <c r="D124">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B125">
+        <v>218339</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="3"/>
+        <v>1794</v>
+      </c>
+      <c r="D125">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45716</v>
       </c>
     </row>
   </sheetData>
